--- a/pred_ohlcv/54_21/2020-01-23 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-15768.4031369971</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-15768.4031369971</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-19565.5499369971</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-37089.8867369971</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-34262.9534369971</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-34254.7534369971</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-62263.4462369971</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-39460.6793369971</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-39439.6572369971</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-39539.6572369971</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-12229.43361035163</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-36250.16141035163</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-28526.48481035163</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>16473.51518964837</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>13900.06788964837</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-289200.7941103516</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-317065.9659103516</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-317028.9659103516</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-330402.079699287</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-347597.514999287</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-383616.762599287</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-522380.0976992869</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1413099.716551756</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1413573.716551756</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1413573.716551756</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1412998.710151756</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1383803.021251756</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1321233.994551756</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1315047.158551756</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1325047.158551756</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1364405.159051756</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1145433.295851756</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1158517.824351756</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1155227.097351756</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-829175.2547517562</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-830515.5547517563</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-832511.7478517563</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-830682.3556517563</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-839814.7774517563</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-687814.7774517563</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-939640.7086517564</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>452500.8625197207</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>445030.0439197207</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>441013.9317197207</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-15768.4031369971</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-15768.4031369971</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-19565.5499369971</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-37089.8867369971</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-34262.9534369971</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-34254.7534369971</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-62263.4462369971</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-39460.6793369971</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-39439.6572369971</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-39539.6572369971</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-12229.43361035163</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-36250.16141035163</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-28526.48481035163</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>16473.51518964837</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>13900.06788964837</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-289200.7941103516</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-317065.9659103516</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-317028.9659103516</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-330402.079699287</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-330402.079699287</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-347597.514999287</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-383616.762599287</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-520179.590899287</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-522380.0976992869</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-523475.0346992869</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-544419.8034992869</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-556728.6290992869</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-592766.2945517569</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-592766.2945517569</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1413099.716551756</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1413573.716551756</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1413573.716551756</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1412998.710151756</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1383803.021251756</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1321232.241151756</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1321233.994551756</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1321233.994551756</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1315047.158551756</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1325047.158551756</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1364405.159051756</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1145433.295851756</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1158517.824351756</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1155227.097351756</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-829175.2547517562</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-830515.5547517563</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-832511.7478517563</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-830682.3556517563</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-839814.7774517563</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-687814.7774517563</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-939640.7086517564</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>452500.8625197207</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>445030.0439197207</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>441013.9317197207</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
